--- a/submision_data/pdutriez_submisions_data.xlsx
+++ b/submision_data/pdutriez_submisions_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\git\NerNet-TP2\submision_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D5D56-7C9D-4EC6-9CF7-5BAC66D35BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923439FB-D6B2-45A4-B34E-62EB7A84F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba_1" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="60">
   <si>
     <t>Hiperparámetros</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Es igual a la prueba_4 pero teniendo en cuenta el año, el score muestra que la ausencia de este paramentro reduce el rendimiento de la red.</t>
+  </si>
+  <si>
+    <t>Adam</t>
   </si>
 </sst>
 </file>
@@ -623,17 +626,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,6 +670,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,31 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1495,7 +1498,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,13 +1548,13 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5">
@@ -1562,13 +1565,13 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>128</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
@@ -1579,13 +1582,13 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -1596,13 +1599,13 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
@@ -1613,13 +1616,13 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
@@ -1630,13 +1633,13 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5">
@@ -1647,13 +1650,13 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28">
-        <v>750</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5">
@@ -1664,13 +1667,13 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>750</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -1681,13 +1684,13 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -1698,13 +1701,13 @@
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="5">
@@ -1715,13 +1718,13 @@
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5">
@@ -1729,16 +1732,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="5">
@@ -1746,12 +1749,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
@@ -1759,12 +1762,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
@@ -1772,12 +1775,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="28" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
@@ -1785,12 +1788,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
@@ -1798,12 +1801,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -1811,12 +1814,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
@@ -1824,12 +1827,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
@@ -1837,12 +1840,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
@@ -1850,8 +1853,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1881,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1997,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2013,8 +2016,8 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>1500</v>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2031,7 +2034,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2078,10 +2081,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2112,10 +2115,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2130,8 +2133,8 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2146,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2156,8 +2159,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2169,8 +2172,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
@@ -2182,8 +2185,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2195,8 +2198,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2208,8 +2211,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
@@ -2221,8 +2224,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2234,8 +2237,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
@@ -2262,7 +2265,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2380,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2396,8 +2399,8 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>1500</v>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2414,7 +2417,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2479,10 +2482,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2496,10 +2499,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2513,8 +2516,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2529,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2539,8 +2542,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2552,8 +2555,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
@@ -2565,8 +2568,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2578,8 +2581,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2594,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
@@ -2604,8 +2607,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2617,8 +2620,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
@@ -2644,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,19 +2659,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2693,13 +2696,13 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5">
@@ -2710,13 +2713,13 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>128</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="5">
@@ -2727,13 +2730,13 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -2744,13 +2747,13 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
@@ -2761,13 +2764,13 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
@@ -2778,13 +2781,13 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28">
-        <v>750</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5">
@@ -2795,13 +2798,13 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="3">
         <v>750</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5">
@@ -2812,13 +2815,13 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>750</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -2829,13 +2832,13 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -2846,13 +2849,13 @@
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="5">
@@ -2864,13 +2867,13 @@
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5">
@@ -2878,16 +2881,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="5">
@@ -2895,12 +2898,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
@@ -2908,12 +2911,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="45"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
@@ -2921,12 +2924,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
@@ -2934,12 +2937,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
@@ -2947,12 +2950,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -2960,12 +2963,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="45"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
@@ -2973,12 +2976,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="45"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
@@ -2986,12 +2989,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
@@ -2999,7 +3002,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="46"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
@@ -3026,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,19 +3039,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3073,13 +3076,13 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5">
@@ -3090,13 +3093,13 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>128</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
@@ -3107,13 +3110,13 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -3124,13 +3127,13 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
@@ -3141,13 +3144,13 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
@@ -3158,13 +3161,13 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28">
-        <v>750</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5">
@@ -3175,13 +3178,13 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="3">
         <v>750</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5">
@@ -3192,13 +3195,13 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>750</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -3209,13 +3212,13 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -3226,13 +3229,13 @@
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="5">
@@ -3243,13 +3246,13 @@
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5">
@@ -3257,16 +3260,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="5">
@@ -3274,12 +3277,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
@@ -3287,12 +3290,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
@@ -3300,12 +3303,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
@@ -3313,12 +3316,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
@@ -3326,12 +3329,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -3339,12 +3342,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
@@ -3352,12 +3355,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
@@ -3365,12 +3368,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
@@ -3378,7 +3381,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="49"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
